--- a/Data/raw_size_data.xlsx
+++ b/Data/raw_size_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewsasaki/Desktop/Lab_Projects/01_Small_projects/freshwater_choice/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA5D3E68-48E3-E847-BD67-2BC0DB9F8FFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A80BD108-587B-3A4E-B93D-FB0AAE07DBF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="15120" windowHeight="18880" xr2:uid="{8320B239-817B-2D40-83A6-DE83587F0EE7}"/>
+    <workbookView xWindow="15120" yWindow="760" windowWidth="15120" windowHeight="18880" xr2:uid="{8320B239-817B-2D40-83A6-DE83587F0EE7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="12">
   <si>
     <t>exp_rep</t>
   </si>
@@ -431,8 +431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8949BF81-7D7A-4643-97D8-DBE58FB94094}">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="158" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="158" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -943,6 +943,9 @@
       <c r="D30" t="s">
         <v>3</v>
       </c>
+      <c r="E30">
+        <v>0.91500000000000004</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
@@ -957,6 +960,9 @@
       <c r="D31" t="s">
         <v>3</v>
       </c>
+      <c r="E31">
+        <v>0.81100000000000005</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
@@ -971,6 +977,9 @@
       <c r="D32" t="s">
         <v>3</v>
       </c>
+      <c r="E32">
+        <v>0.82499999999999996</v>
+      </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
@@ -985,6 +994,9 @@
       <c r="D33" t="s">
         <v>4</v>
       </c>
+      <c r="E33">
+        <v>0.79300000000000004</v>
+      </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
@@ -999,6 +1011,9 @@
       <c r="D34" t="s">
         <v>4</v>
       </c>
+      <c r="E34" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
@@ -1012,6 +1027,9 @@
       </c>
       <c r="D35" t="s">
         <v>4</v>
+      </c>
+      <c r="E35">
+        <v>0.78600000000000003</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
